--- a/Datos definitivos/Rampa_2.xlsx
+++ b/Datos definitivos/Rampa_2.xlsx
@@ -12,7 +12,6 @@
     <sheet name="Hoja3" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="145621"/>
-  <fileRecoveryPr repairLoad="1"/>
 </workbook>
 </file>
 
@@ -714,607 +713,607 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>9.8039215686274508E-2</c:v>
+                  <c:v>5</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.19607843137254902</c:v>
+                  <c:v>10</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.29411764705882354</c:v>
+                  <c:v>15</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.39215686274509803</c:v>
+                  <c:v>20</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.49019607843137253</c:v>
+                  <c:v>25</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.58823529411764708</c:v>
+                  <c:v>30</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.68627450980392157</c:v>
+                  <c:v>35</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.78431372549019607</c:v>
+                  <c:v>40</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.88235294117647056</c:v>
+                  <c:v>45</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0.98039215686274506</c:v>
+                  <c:v>50</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>1.0784313725490196</c:v>
+                  <c:v>55</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>1.1764705882352942</c:v>
+                  <c:v>60</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>1.2745098039215685</c:v>
+                  <c:v>65</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>1.3725490196078431</c:v>
+                  <c:v>70</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>1.4705882352941175</c:v>
+                  <c:v>75</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>1.5686274509803921</c:v>
+                  <c:v>80</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>1.6666666666666667</c:v>
+                  <c:v>85</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>1.7647058823529411</c:v>
+                  <c:v>90</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>1.8627450980392157</c:v>
+                  <c:v>95</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>1.9607843137254901</c:v>
+                  <c:v>100</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>2.0588235294117645</c:v>
+                  <c:v>104.99999999999999</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>2.1568627450980391</c:v>
+                  <c:v>110</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>2.2549019607843137</c:v>
+                  <c:v>115</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>2.3529411764705883</c:v>
+                  <c:v>120</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>2.4509803921568629</c:v>
+                  <c:v>125.00000000000001</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>2.5490196078431371</c:v>
+                  <c:v>130</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>2.6470588235294117</c:v>
+                  <c:v>135</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>2.7450980392156863</c:v>
+                  <c:v>140</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>2.8431372549019609</c:v>
+                  <c:v>145</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>2.9411764705882351</c:v>
+                  <c:v>150</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>3.0392156862745097</c:v>
+                  <c:v>155</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>3.1372549019607843</c:v>
+                  <c:v>160</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>3.2352941176470589</c:v>
+                  <c:v>165</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>3.3333333333333335</c:v>
+                  <c:v>170</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>3.4313725490196076</c:v>
+                  <c:v>175</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>3.5294117647058822</c:v>
+                  <c:v>180</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>3.6274509803921569</c:v>
+                  <c:v>185</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>3.7254901960784315</c:v>
+                  <c:v>190</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>3.8235294117647056</c:v>
+                  <c:v>195</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>3.9215686274509802</c:v>
+                  <c:v>200</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>4.0196078431372548</c:v>
+                  <c:v>205</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>4.117647058823529</c:v>
+                  <c:v>209.99999999999997</c:v>
                 </c:pt>
                 <c:pt idx="43">
-                  <c:v>4.215686274509804</c:v>
+                  <c:v>215</c:v>
                 </c:pt>
                 <c:pt idx="44">
-                  <c:v>4.3137254901960782</c:v>
+                  <c:v>220</c:v>
                 </c:pt>
                 <c:pt idx="45">
-                  <c:v>4.4117647058823533</c:v>
+                  <c:v>225.00000000000003</c:v>
                 </c:pt>
                 <c:pt idx="46">
-                  <c:v>4.5098039215686274</c:v>
+                  <c:v>230</c:v>
                 </c:pt>
                 <c:pt idx="47">
-                  <c:v>4.6078431372549016</c:v>
+                  <c:v>234.99999999999997</c:v>
                 </c:pt>
                 <c:pt idx="48">
-                  <c:v>4.7058823529411766</c:v>
+                  <c:v>240</c:v>
                 </c:pt>
                 <c:pt idx="49">
-                  <c:v>4.8039215686274508</c:v>
+                  <c:v>245</c:v>
                 </c:pt>
                 <c:pt idx="50">
-                  <c:v>4.9019607843137258</c:v>
+                  <c:v>250.00000000000003</c:v>
                 </c:pt>
                 <c:pt idx="51">
-                  <c:v>-9.8039215686274508E-2</c:v>
+                  <c:v>-5</c:v>
                 </c:pt>
                 <c:pt idx="52">
-                  <c:v>-0.19607843137254902</c:v>
+                  <c:v>-10</c:v>
                 </c:pt>
                 <c:pt idx="53">
-                  <c:v>-0.29411764705882354</c:v>
+                  <c:v>-15</c:v>
                 </c:pt>
                 <c:pt idx="54">
-                  <c:v>-0.39215686274509803</c:v>
+                  <c:v>-20</c:v>
                 </c:pt>
                 <c:pt idx="55">
-                  <c:v>-0.49019607843137253</c:v>
+                  <c:v>-25</c:v>
                 </c:pt>
                 <c:pt idx="56">
-                  <c:v>-0.58823529411764708</c:v>
+                  <c:v>-30</c:v>
                 </c:pt>
                 <c:pt idx="57">
-                  <c:v>-0.68627450980392157</c:v>
+                  <c:v>-35</c:v>
                 </c:pt>
                 <c:pt idx="58">
-                  <c:v>-0.78431372549019607</c:v>
+                  <c:v>-40</c:v>
                 </c:pt>
                 <c:pt idx="59">
-                  <c:v>-0.88235294117647056</c:v>
+                  <c:v>-45</c:v>
                 </c:pt>
                 <c:pt idx="60">
-                  <c:v>-0.98039215686274506</c:v>
+                  <c:v>-50</c:v>
                 </c:pt>
                 <c:pt idx="61">
-                  <c:v>-1.0784313725490196</c:v>
+                  <c:v>-55</c:v>
                 </c:pt>
                 <c:pt idx="62">
-                  <c:v>-1.1764705882352942</c:v>
+                  <c:v>-60</c:v>
                 </c:pt>
                 <c:pt idx="63">
-                  <c:v>-1.2745098039215685</c:v>
+                  <c:v>-65</c:v>
                 </c:pt>
                 <c:pt idx="64">
-                  <c:v>-1.3725490196078431</c:v>
+                  <c:v>-70</c:v>
                 </c:pt>
                 <c:pt idx="65">
-                  <c:v>-1.4705882352941175</c:v>
+                  <c:v>-75</c:v>
                 </c:pt>
                 <c:pt idx="66">
-                  <c:v>-1.5686274509803921</c:v>
+                  <c:v>-80</c:v>
                 </c:pt>
                 <c:pt idx="67">
-                  <c:v>-1.6666666666666667</c:v>
+                  <c:v>-85</c:v>
                 </c:pt>
                 <c:pt idx="68">
-                  <c:v>-1.7647058823529411</c:v>
+                  <c:v>-90</c:v>
                 </c:pt>
                 <c:pt idx="69">
-                  <c:v>-1.8627450980392157</c:v>
+                  <c:v>-95</c:v>
                 </c:pt>
                 <c:pt idx="70">
-                  <c:v>-1.9607843137254901</c:v>
+                  <c:v>-100</c:v>
                 </c:pt>
                 <c:pt idx="71">
-                  <c:v>-2.0588235294117645</c:v>
+                  <c:v>-104.99999999999999</c:v>
                 </c:pt>
                 <c:pt idx="72">
-                  <c:v>-2.1568627450980391</c:v>
+                  <c:v>-110</c:v>
                 </c:pt>
                 <c:pt idx="73">
-                  <c:v>-2.2549019607843137</c:v>
+                  <c:v>-115</c:v>
                 </c:pt>
                 <c:pt idx="74">
-                  <c:v>-2.3529411764705883</c:v>
+                  <c:v>-120</c:v>
                 </c:pt>
                 <c:pt idx="75">
-                  <c:v>-2.4509803921568629</c:v>
+                  <c:v>-125.00000000000001</c:v>
                 </c:pt>
                 <c:pt idx="76">
-                  <c:v>-2.5490196078431371</c:v>
+                  <c:v>-130</c:v>
                 </c:pt>
                 <c:pt idx="77">
-                  <c:v>-2.6470588235294117</c:v>
+                  <c:v>-135</c:v>
                 </c:pt>
                 <c:pt idx="78">
-                  <c:v>-2.7450980392156863</c:v>
+                  <c:v>-140</c:v>
                 </c:pt>
                 <c:pt idx="79">
-                  <c:v>-2.8431372549019609</c:v>
+                  <c:v>-145</c:v>
                 </c:pt>
                 <c:pt idx="80">
-                  <c:v>-2.9411764705882351</c:v>
+                  <c:v>-150</c:v>
                 </c:pt>
                 <c:pt idx="81">
-                  <c:v>-3.0392156862745097</c:v>
+                  <c:v>-155</c:v>
                 </c:pt>
                 <c:pt idx="82">
-                  <c:v>-3.1372549019607843</c:v>
+                  <c:v>-160</c:v>
                 </c:pt>
                 <c:pt idx="83">
-                  <c:v>-3.2352941176470589</c:v>
+                  <c:v>-165</c:v>
                 </c:pt>
                 <c:pt idx="84">
-                  <c:v>-3.3333333333333335</c:v>
+                  <c:v>-170</c:v>
                 </c:pt>
                 <c:pt idx="85">
-                  <c:v>-3.4313725490196076</c:v>
+                  <c:v>-175</c:v>
                 </c:pt>
                 <c:pt idx="86">
-                  <c:v>-3.5294117647058822</c:v>
+                  <c:v>-180</c:v>
                 </c:pt>
                 <c:pt idx="87">
-                  <c:v>-3.6274509803921569</c:v>
+                  <c:v>-185</c:v>
                 </c:pt>
                 <c:pt idx="88">
-                  <c:v>-3.7254901960784315</c:v>
+                  <c:v>-190</c:v>
                 </c:pt>
                 <c:pt idx="89">
-                  <c:v>-3.8235294117647056</c:v>
+                  <c:v>-195</c:v>
                 </c:pt>
                 <c:pt idx="90">
-                  <c:v>-3.9215686274509802</c:v>
+                  <c:v>-200</c:v>
                 </c:pt>
                 <c:pt idx="91">
-                  <c:v>-4.0196078431372548</c:v>
+                  <c:v>-205</c:v>
                 </c:pt>
                 <c:pt idx="92">
-                  <c:v>-4.117647058823529</c:v>
+                  <c:v>-209.99999999999997</c:v>
                 </c:pt>
                 <c:pt idx="93">
-                  <c:v>-4.215686274509804</c:v>
+                  <c:v>-215</c:v>
                 </c:pt>
                 <c:pt idx="94">
-                  <c:v>-4.3137254901960782</c:v>
+                  <c:v>-220</c:v>
                 </c:pt>
                 <c:pt idx="95">
-                  <c:v>-4.4117647058823533</c:v>
+                  <c:v>-225.00000000000003</c:v>
                 </c:pt>
                 <c:pt idx="96">
-                  <c:v>-4.5098039215686274</c:v>
+                  <c:v>-230</c:v>
                 </c:pt>
                 <c:pt idx="97">
-                  <c:v>-4.6078431372549016</c:v>
+                  <c:v>-234.99999999999997</c:v>
                 </c:pt>
                 <c:pt idx="98">
-                  <c:v>-4.7058823529411766</c:v>
+                  <c:v>-240</c:v>
                 </c:pt>
                 <c:pt idx="99">
-                  <c:v>-4.8039215686274508</c:v>
+                  <c:v>-245</c:v>
                 </c:pt>
                 <c:pt idx="100">
-                  <c:v>-4.9019607843137258</c:v>
+                  <c:v>-250.00000000000003</c:v>
                 </c:pt>
                 <c:pt idx="101">
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="102">
-                  <c:v>9.8039215686274508E-2</c:v>
+                  <c:v>5</c:v>
                 </c:pt>
                 <c:pt idx="103">
-                  <c:v>0.19607843137254902</c:v>
+                  <c:v>10</c:v>
                 </c:pt>
                 <c:pt idx="104">
-                  <c:v>0.29411764705882354</c:v>
+                  <c:v>15</c:v>
                 </c:pt>
                 <c:pt idx="105">
-                  <c:v>0.39215686274509803</c:v>
+                  <c:v>20</c:v>
                 </c:pt>
                 <c:pt idx="106">
-                  <c:v>0.49019607843137253</c:v>
+                  <c:v>25</c:v>
                 </c:pt>
                 <c:pt idx="107">
-                  <c:v>0.58823529411764708</c:v>
+                  <c:v>30</c:v>
                 </c:pt>
                 <c:pt idx="108">
-                  <c:v>0.68627450980392157</c:v>
+                  <c:v>35</c:v>
                 </c:pt>
                 <c:pt idx="109">
-                  <c:v>0.78431372549019607</c:v>
+                  <c:v>40</c:v>
                 </c:pt>
                 <c:pt idx="110">
-                  <c:v>0.88235294117647056</c:v>
+                  <c:v>45</c:v>
                 </c:pt>
                 <c:pt idx="111">
-                  <c:v>0.98039215686274506</c:v>
+                  <c:v>50</c:v>
                 </c:pt>
                 <c:pt idx="112">
-                  <c:v>1.0784313725490196</c:v>
+                  <c:v>55</c:v>
                 </c:pt>
                 <c:pt idx="113">
-                  <c:v>1.1764705882352942</c:v>
+                  <c:v>60</c:v>
                 </c:pt>
                 <c:pt idx="114">
-                  <c:v>1.2745098039215685</c:v>
+                  <c:v>65</c:v>
                 </c:pt>
                 <c:pt idx="115">
-                  <c:v>1.3725490196078431</c:v>
+                  <c:v>70</c:v>
                 </c:pt>
                 <c:pt idx="116">
-                  <c:v>1.4705882352941175</c:v>
+                  <c:v>75</c:v>
                 </c:pt>
                 <c:pt idx="117">
-                  <c:v>1.5686274509803921</c:v>
+                  <c:v>80</c:v>
                 </c:pt>
                 <c:pt idx="118">
-                  <c:v>1.6666666666666667</c:v>
+                  <c:v>85</c:v>
                 </c:pt>
                 <c:pt idx="119">
-                  <c:v>1.7647058823529411</c:v>
+                  <c:v>90</c:v>
                 </c:pt>
                 <c:pt idx="120">
-                  <c:v>1.8627450980392157</c:v>
+                  <c:v>95</c:v>
                 </c:pt>
                 <c:pt idx="121">
-                  <c:v>1.9607843137254901</c:v>
+                  <c:v>100</c:v>
                 </c:pt>
                 <c:pt idx="122">
-                  <c:v>2.0588235294117645</c:v>
+                  <c:v>104.99999999999999</c:v>
                 </c:pt>
                 <c:pt idx="123">
-                  <c:v>2.1568627450980391</c:v>
+                  <c:v>110</c:v>
                 </c:pt>
                 <c:pt idx="124">
-                  <c:v>2.2549019607843137</c:v>
+                  <c:v>115</c:v>
                 </c:pt>
                 <c:pt idx="125">
-                  <c:v>2.3529411764705883</c:v>
+                  <c:v>120</c:v>
                 </c:pt>
                 <c:pt idx="126">
-                  <c:v>2.4509803921568629</c:v>
+                  <c:v>125.00000000000001</c:v>
                 </c:pt>
                 <c:pt idx="127">
-                  <c:v>2.5490196078431371</c:v>
+                  <c:v>130</c:v>
                 </c:pt>
                 <c:pt idx="128">
-                  <c:v>2.6470588235294117</c:v>
+                  <c:v>135</c:v>
                 </c:pt>
                 <c:pt idx="129">
-                  <c:v>2.7450980392156863</c:v>
+                  <c:v>140</c:v>
                 </c:pt>
                 <c:pt idx="130">
-                  <c:v>2.8431372549019609</c:v>
+                  <c:v>145</c:v>
                 </c:pt>
                 <c:pt idx="131">
-                  <c:v>2.9411764705882351</c:v>
+                  <c:v>150</c:v>
                 </c:pt>
                 <c:pt idx="132">
-                  <c:v>3.0392156862745097</c:v>
+                  <c:v>155</c:v>
                 </c:pt>
                 <c:pt idx="133">
-                  <c:v>3.1372549019607843</c:v>
+                  <c:v>160</c:v>
                 </c:pt>
                 <c:pt idx="134">
-                  <c:v>3.2352941176470589</c:v>
+                  <c:v>165</c:v>
                 </c:pt>
                 <c:pt idx="135">
-                  <c:v>3.3333333333333335</c:v>
+                  <c:v>170</c:v>
                 </c:pt>
                 <c:pt idx="136">
-                  <c:v>3.4313725490196076</c:v>
+                  <c:v>175</c:v>
                 </c:pt>
                 <c:pt idx="137">
-                  <c:v>3.5294117647058822</c:v>
+                  <c:v>180</c:v>
                 </c:pt>
                 <c:pt idx="138">
-                  <c:v>3.6274509803921569</c:v>
+                  <c:v>185</c:v>
                 </c:pt>
                 <c:pt idx="139">
-                  <c:v>3.7254901960784315</c:v>
+                  <c:v>190</c:v>
                 </c:pt>
                 <c:pt idx="140">
-                  <c:v>3.8235294117647056</c:v>
+                  <c:v>195</c:v>
                 </c:pt>
                 <c:pt idx="141">
-                  <c:v>3.9215686274509802</c:v>
+                  <c:v>200</c:v>
                 </c:pt>
                 <c:pt idx="142">
-                  <c:v>4.0196078431372548</c:v>
+                  <c:v>205</c:v>
                 </c:pt>
                 <c:pt idx="143">
-                  <c:v>4.117647058823529</c:v>
+                  <c:v>209.99999999999997</c:v>
                 </c:pt>
                 <c:pt idx="144">
-                  <c:v>4.215686274509804</c:v>
+                  <c:v>215</c:v>
                 </c:pt>
                 <c:pt idx="145">
-                  <c:v>4.3137254901960782</c:v>
+                  <c:v>220</c:v>
                 </c:pt>
                 <c:pt idx="146">
-                  <c:v>4.4117647058823533</c:v>
+                  <c:v>225.00000000000003</c:v>
                 </c:pt>
                 <c:pt idx="147">
-                  <c:v>4.5098039215686274</c:v>
+                  <c:v>230</c:v>
                 </c:pt>
                 <c:pt idx="148">
-                  <c:v>4.6078431372549016</c:v>
+                  <c:v>234.99999999999997</c:v>
                 </c:pt>
                 <c:pt idx="149">
-                  <c:v>4.7058823529411766</c:v>
+                  <c:v>240</c:v>
                 </c:pt>
                 <c:pt idx="150">
-                  <c:v>4.8039215686274508</c:v>
+                  <c:v>245</c:v>
                 </c:pt>
                 <c:pt idx="151">
-                  <c:v>4.9019607843137258</c:v>
+                  <c:v>250.00000000000003</c:v>
                 </c:pt>
                 <c:pt idx="152">
-                  <c:v>-9.8039215686274508E-2</c:v>
+                  <c:v>-5</c:v>
                 </c:pt>
                 <c:pt idx="153">
-                  <c:v>-0.19607843137254902</c:v>
+                  <c:v>-10</c:v>
                 </c:pt>
                 <c:pt idx="154">
-                  <c:v>-0.29411764705882354</c:v>
+                  <c:v>-15</c:v>
                 </c:pt>
                 <c:pt idx="155">
-                  <c:v>-0.39215686274509803</c:v>
+                  <c:v>-20</c:v>
                 </c:pt>
                 <c:pt idx="156">
-                  <c:v>-0.49019607843137253</c:v>
+                  <c:v>-25</c:v>
                 </c:pt>
                 <c:pt idx="157">
-                  <c:v>-0.58823529411764708</c:v>
+                  <c:v>-30</c:v>
                 </c:pt>
                 <c:pt idx="158">
-                  <c:v>-0.68627450980392157</c:v>
+                  <c:v>-35</c:v>
                 </c:pt>
                 <c:pt idx="159">
-                  <c:v>-0.78431372549019607</c:v>
+                  <c:v>-40</c:v>
                 </c:pt>
                 <c:pt idx="160">
-                  <c:v>-0.88235294117647056</c:v>
+                  <c:v>-45</c:v>
                 </c:pt>
                 <c:pt idx="161">
-                  <c:v>-0.98039215686274506</c:v>
+                  <c:v>-50</c:v>
                 </c:pt>
                 <c:pt idx="162">
-                  <c:v>-1.0784313725490196</c:v>
+                  <c:v>-55</c:v>
                 </c:pt>
                 <c:pt idx="163">
-                  <c:v>-1.1764705882352942</c:v>
+                  <c:v>-60</c:v>
                 </c:pt>
                 <c:pt idx="164">
-                  <c:v>-1.2745098039215685</c:v>
+                  <c:v>-65</c:v>
                 </c:pt>
                 <c:pt idx="165">
-                  <c:v>-1.3725490196078431</c:v>
+                  <c:v>-70</c:v>
                 </c:pt>
                 <c:pt idx="166">
-                  <c:v>-1.4705882352941175</c:v>
+                  <c:v>-75</c:v>
                 </c:pt>
                 <c:pt idx="167">
-                  <c:v>-1.5686274509803921</c:v>
+                  <c:v>-80</c:v>
                 </c:pt>
                 <c:pt idx="168">
-                  <c:v>-1.6666666666666667</c:v>
+                  <c:v>-85</c:v>
                 </c:pt>
                 <c:pt idx="169">
-                  <c:v>-1.7647058823529411</c:v>
+                  <c:v>-90</c:v>
                 </c:pt>
                 <c:pt idx="170">
-                  <c:v>-1.8627450980392157</c:v>
+                  <c:v>-95</c:v>
                 </c:pt>
                 <c:pt idx="171">
-                  <c:v>-1.9607843137254901</c:v>
+                  <c:v>-100</c:v>
                 </c:pt>
                 <c:pt idx="172">
-                  <c:v>-2.0588235294117645</c:v>
+                  <c:v>-104.99999999999999</c:v>
                 </c:pt>
                 <c:pt idx="173">
-                  <c:v>-2.1568627450980391</c:v>
+                  <c:v>-110</c:v>
                 </c:pt>
                 <c:pt idx="174">
-                  <c:v>-2.2549019607843137</c:v>
+                  <c:v>-115</c:v>
                 </c:pt>
                 <c:pt idx="175">
-                  <c:v>-2.3529411764705883</c:v>
+                  <c:v>-120</c:v>
                 </c:pt>
                 <c:pt idx="176">
-                  <c:v>-2.4509803921568629</c:v>
+                  <c:v>-125.00000000000001</c:v>
                 </c:pt>
                 <c:pt idx="177">
-                  <c:v>-2.5490196078431371</c:v>
+                  <c:v>-130</c:v>
                 </c:pt>
                 <c:pt idx="178">
-                  <c:v>-2.6470588235294117</c:v>
+                  <c:v>-135</c:v>
                 </c:pt>
                 <c:pt idx="179">
-                  <c:v>-2.7450980392156863</c:v>
+                  <c:v>-140</c:v>
                 </c:pt>
                 <c:pt idx="180">
-                  <c:v>-2.8431372549019609</c:v>
+                  <c:v>-145</c:v>
                 </c:pt>
                 <c:pt idx="181">
-                  <c:v>-2.9411764705882351</c:v>
+                  <c:v>-150</c:v>
                 </c:pt>
                 <c:pt idx="182">
-                  <c:v>-3.0392156862745097</c:v>
+                  <c:v>-155</c:v>
                 </c:pt>
                 <c:pt idx="183">
-                  <c:v>-3.1372549019607843</c:v>
+                  <c:v>-160</c:v>
                 </c:pt>
                 <c:pt idx="184">
-                  <c:v>-3.2352941176470589</c:v>
+                  <c:v>-165</c:v>
                 </c:pt>
                 <c:pt idx="185">
-                  <c:v>-3.3333333333333335</c:v>
+                  <c:v>-170</c:v>
                 </c:pt>
                 <c:pt idx="186">
-                  <c:v>-3.4313725490196076</c:v>
+                  <c:v>-175</c:v>
                 </c:pt>
                 <c:pt idx="187">
-                  <c:v>-3.5294117647058822</c:v>
+                  <c:v>-180</c:v>
                 </c:pt>
                 <c:pt idx="188">
-                  <c:v>-3.6274509803921569</c:v>
+                  <c:v>-185</c:v>
                 </c:pt>
                 <c:pt idx="189">
-                  <c:v>-3.7254901960784315</c:v>
+                  <c:v>-190</c:v>
                 </c:pt>
                 <c:pt idx="190">
-                  <c:v>-3.8235294117647056</c:v>
+                  <c:v>-195</c:v>
                 </c:pt>
                 <c:pt idx="191">
-                  <c:v>-3.9215686274509802</c:v>
+                  <c:v>-200</c:v>
                 </c:pt>
                 <c:pt idx="192">
-                  <c:v>-4.0196078431372548</c:v>
+                  <c:v>-205</c:v>
                 </c:pt>
                 <c:pt idx="193">
-                  <c:v>-4.117647058823529</c:v>
+                  <c:v>-209.99999999999997</c:v>
                 </c:pt>
                 <c:pt idx="194">
-                  <c:v>-4.215686274509804</c:v>
+                  <c:v>-215</c:v>
                 </c:pt>
                 <c:pt idx="195">
-                  <c:v>-4.3137254901960782</c:v>
+                  <c:v>-220</c:v>
                 </c:pt>
                 <c:pt idx="196">
-                  <c:v>-4.4117647058823533</c:v>
+                  <c:v>-225.00000000000003</c:v>
                 </c:pt>
                 <c:pt idx="197">
-                  <c:v>-4.5098039215686274</c:v>
+                  <c:v>-230</c:v>
                 </c:pt>
                 <c:pt idx="198">
-                  <c:v>-4.6078431372549016</c:v>
+                  <c:v>-234.99999999999997</c:v>
                 </c:pt>
                 <c:pt idx="199">
-                  <c:v>-4.7058823529411766</c:v>
+                  <c:v>-240</c:v>
                 </c:pt>
                 <c:pt idx="200">
-                  <c:v>-4.8039215686274508</c:v>
+                  <c:v>-245</c:v>
                 </c:pt>
                 <c:pt idx="201">
-                  <c:v>-4.9019607843137258</c:v>
+                  <c:v>-250.00000000000003</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2567,11 +2566,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="296425728"/>
-        <c:axId val="296460288"/>
+        <c:axId val="257183744"/>
+        <c:axId val="257185280"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="296425728"/>
+        <c:axId val="257183744"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="25363"/>
@@ -2583,12 +2582,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="296460288"/>
+        <c:crossAx val="257185280"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="296460288"/>
+        <c:axId val="257185280"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2599,7 +2598,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="296425728"/>
+        <c:crossAx val="257183744"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -2625,16 +2624,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>276225</xdr:colOff>
-      <xdr:row>1</xdr:row>
-      <xdr:rowOff>142874</xdr:rowOff>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>66675</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>152399</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>19</xdr:col>
-      <xdr:colOff>352425</xdr:colOff>
-      <xdr:row>35</xdr:row>
-      <xdr:rowOff>95249</xdr:rowOff>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>142875</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>104774</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -2946,7 +2945,7 @@
   <dimension ref="A1:X202"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="W8" sqref="W8"/>
+      <selection activeCell="I5" sqref="I5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2968,7 +2967,7 @@
     </row>
     <row r="2" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A2">
-        <v>9.8039215686274508E-2</v>
+        <v>5</v>
       </c>
       <c r="B2">
         <v>49.33</v>
@@ -2983,7 +2982,7 @@
     </row>
     <row r="3" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A3">
-        <v>0.19607843137254902</v>
+        <v>10</v>
       </c>
       <c r="B3">
         <v>50.29</v>
@@ -2998,7 +2997,7 @@
     </row>
     <row r="4" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A4">
-        <v>0.29411764705882354</v>
+        <v>15</v>
       </c>
       <c r="B4">
         <v>51.77</v>
@@ -3021,7 +3020,7 @@
     </row>
     <row r="5" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A5">
-        <v>0.39215686274509803</v>
+        <v>20</v>
       </c>
       <c r="B5">
         <v>52.27</v>
@@ -3040,7 +3039,7 @@
     </row>
     <row r="6" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A6">
-        <v>0.49019607843137253</v>
+        <v>25</v>
       </c>
       <c r="B6">
         <v>52.54</v>
@@ -3063,7 +3062,7 @@
     </row>
     <row r="7" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A7">
-        <v>0.58823529411764708</v>
+        <v>30</v>
       </c>
       <c r="B7">
         <v>53.35</v>
@@ -3082,7 +3081,7 @@
     </row>
     <row r="8" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A8">
-        <v>0.68627450980392157</v>
+        <v>35</v>
       </c>
       <c r="B8">
         <v>53.99</v>
@@ -3097,7 +3096,7 @@
     </row>
     <row r="9" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A9">
-        <v>0.78431372549019607</v>
+        <v>40</v>
       </c>
       <c r="B9">
         <v>54.02</v>
@@ -3112,7 +3111,7 @@
     </row>
     <row r="10" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A10">
-        <v>0.88235294117647056</v>
+        <v>45</v>
       </c>
       <c r="B10">
         <v>54.97</v>
@@ -3127,7 +3126,7 @@
     </row>
     <row r="11" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A11">
-        <v>0.98039215686274506</v>
+        <v>50</v>
       </c>
       <c r="B11">
         <v>55.34</v>
@@ -3142,7 +3141,7 @@
     </row>
     <row r="12" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A12">
-        <v>1.0784313725490196</v>
+        <v>55</v>
       </c>
       <c r="B12">
         <v>55.64</v>
@@ -3157,7 +3156,7 @@
     </row>
     <row r="13" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A13">
-        <v>1.1764705882352942</v>
+        <v>60</v>
       </c>
       <c r="B13">
         <v>56.27</v>
@@ -3172,7 +3171,7 @@
     </row>
     <row r="14" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A14">
-        <v>1.2745098039215685</v>
+        <v>65</v>
       </c>
       <c r="B14">
         <v>56.43</v>
@@ -3187,7 +3186,7 @@
     </row>
     <row r="15" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A15">
-        <v>1.3725490196078431</v>
+        <v>70</v>
       </c>
       <c r="B15">
         <v>56.12</v>
@@ -3202,7 +3201,7 @@
     </row>
     <row r="16" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A16">
-        <v>1.4705882352941175</v>
+        <v>75</v>
       </c>
       <c r="B16">
         <v>56</v>
@@ -3217,7 +3216,7 @@
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17">
-        <v>1.5686274509803921</v>
+        <v>80</v>
       </c>
       <c r="B17">
         <v>56.1</v>
@@ -3232,7 +3231,7 @@
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18">
-        <v>1.6666666666666667</v>
+        <v>85</v>
       </c>
       <c r="B18">
         <v>56.48</v>
@@ -3247,7 +3246,7 @@
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19">
-        <v>1.7647058823529411</v>
+        <v>90</v>
       </c>
       <c r="B19">
         <v>55.86</v>
@@ -3262,7 +3261,7 @@
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20">
-        <v>1.8627450980392157</v>
+        <v>95</v>
       </c>
       <c r="B20">
         <v>55.91</v>
@@ -3277,7 +3276,7 @@
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A21">
-        <v>1.9607843137254901</v>
+        <v>100</v>
       </c>
       <c r="B21">
         <v>55.86</v>
@@ -3292,7 +3291,7 @@
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A22">
-        <v>2.0588235294117645</v>
+        <v>104.99999999999999</v>
       </c>
       <c r="B22">
         <v>55.69</v>
@@ -3307,7 +3306,7 @@
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A23">
-        <v>2.1568627450980391</v>
+        <v>110</v>
       </c>
       <c r="B23">
         <v>55.5</v>
@@ -3322,7 +3321,7 @@
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A24">
-        <v>2.2549019607843137</v>
+        <v>115</v>
       </c>
       <c r="B24">
         <v>55.76</v>
@@ -3337,7 +3336,7 @@
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A25">
-        <v>2.3529411764705883</v>
+        <v>120</v>
       </c>
       <c r="B25">
         <v>55.03</v>
@@ -3352,7 +3351,7 @@
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A26">
-        <v>2.4509803921568629</v>
+        <v>125.00000000000001</v>
       </c>
       <c r="B26">
         <v>55.12</v>
@@ -3367,7 +3366,7 @@
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A27">
-        <v>2.5490196078431371</v>
+        <v>130</v>
       </c>
       <c r="B27">
         <v>54.4</v>
@@ -3382,7 +3381,7 @@
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A28">
-        <v>2.6470588235294117</v>
+        <v>135</v>
       </c>
       <c r="B28">
         <v>54.04</v>
@@ -3397,7 +3396,7 @@
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A29">
-        <v>2.7450980392156863</v>
+        <v>140</v>
       </c>
       <c r="B29">
         <v>53.52</v>
@@ -3412,7 +3411,7 @@
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A30">
-        <v>2.8431372549019609</v>
+        <v>145</v>
       </c>
       <c r="B30">
         <v>53.16</v>
@@ -3427,7 +3426,7 @@
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A31">
-        <v>2.9411764705882351</v>
+        <v>150</v>
       </c>
       <c r="B31">
         <v>52.7</v>
@@ -3442,7 +3441,7 @@
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A32">
-        <v>3.0392156862745097</v>
+        <v>155</v>
       </c>
       <c r="B32">
         <v>52.18</v>
@@ -3457,7 +3456,7 @@
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A33">
-        <v>3.1372549019607843</v>
+        <v>160</v>
       </c>
       <c r="B33">
         <v>51.62</v>
@@ -3472,7 +3471,7 @@
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A34">
-        <v>3.2352941176470589</v>
+        <v>165</v>
       </c>
       <c r="B34">
         <v>51.51</v>
@@ -3487,7 +3486,7 @@
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A35">
-        <v>3.3333333333333335</v>
+        <v>170</v>
       </c>
       <c r="B35">
         <v>50.48</v>
@@ -3502,7 +3501,7 @@
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A36">
-        <v>3.4313725490196076</v>
+        <v>175</v>
       </c>
       <c r="B36">
         <v>50.27</v>
@@ -3517,7 +3516,7 @@
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A37">
-        <v>3.5294117647058822</v>
+        <v>180</v>
       </c>
       <c r="B37">
         <v>49.6</v>
@@ -3532,7 +3531,7 @@
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A38">
-        <v>3.6274509803921569</v>
+        <v>185</v>
       </c>
       <c r="B38">
         <v>48.45</v>
@@ -3547,7 +3546,7 @@
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A39">
-        <v>3.7254901960784315</v>
+        <v>190</v>
       </c>
       <c r="B39">
         <v>48.21</v>
@@ -3562,7 +3561,7 @@
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A40">
-        <v>3.8235294117647056</v>
+        <v>195</v>
       </c>
       <c r="B40">
         <v>46.94</v>
@@ -3577,7 +3576,7 @@
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A41">
-        <v>3.9215686274509802</v>
+        <v>200</v>
       </c>
       <c r="B41">
         <v>46.53</v>
@@ -3592,7 +3591,7 @@
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A42">
-        <v>4.0196078431372548</v>
+        <v>205</v>
       </c>
       <c r="B42">
         <v>45.36</v>
@@ -3607,7 +3606,7 @@
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A43">
-        <v>4.117647058823529</v>
+        <v>209.99999999999997</v>
       </c>
       <c r="B43">
         <v>44.6</v>
@@ -3622,7 +3621,7 @@
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A44">
-        <v>4.215686274509804</v>
+        <v>215</v>
       </c>
       <c r="B44">
         <v>44</v>
@@ -3637,7 +3636,7 @@
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A45">
-        <v>4.3137254901960782</v>
+        <v>220</v>
       </c>
       <c r="B45">
         <v>42.65</v>
@@ -3652,7 +3651,7 @@
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A46">
-        <v>4.4117647058823533</v>
+        <v>225.00000000000003</v>
       </c>
       <c r="B46">
         <v>41.77</v>
@@ -3667,7 +3666,7 @@
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A47">
-        <v>4.5098039215686274</v>
+        <v>230</v>
       </c>
       <c r="B47">
         <v>40.770000000000003</v>
@@ -3682,7 +3681,7 @@
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A48">
-        <v>4.6078431372549016</v>
+        <v>234.99999999999997</v>
       </c>
       <c r="B48">
         <v>39.64</v>
@@ -3697,7 +3696,7 @@
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A49">
-        <v>4.7058823529411766</v>
+        <v>240</v>
       </c>
       <c r="B49">
         <v>38.64</v>
@@ -3712,7 +3711,7 @@
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A50">
-        <v>4.8039215686274508</v>
+        <v>245</v>
       </c>
       <c r="B50">
         <v>37.58</v>
@@ -3727,7 +3726,7 @@
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A51">
-        <v>4.9019607843137258</v>
+        <v>250.00000000000003</v>
       </c>
       <c r="B51">
         <v>36.44</v>
@@ -3742,7 +3741,7 @@
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A52">
-        <v>-9.8039215686274508E-2</v>
+        <v>-5</v>
       </c>
       <c r="B52">
         <v>35.700000000000003</v>
@@ -3757,7 +3756,7 @@
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A53">
-        <v>-0.19607843137254902</v>
+        <v>-10</v>
       </c>
       <c r="B53">
         <v>34.19</v>
@@ -3772,7 +3771,7 @@
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A54">
-        <v>-0.29411764705882354</v>
+        <v>-15</v>
       </c>
       <c r="B54">
         <v>33.42</v>
@@ -3787,7 +3786,7 @@
     </row>
     <row r="55" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A55">
-        <v>-0.39215686274509803</v>
+        <v>-20</v>
       </c>
       <c r="B55">
         <v>32.03</v>
@@ -3802,7 +3801,7 @@
     </row>
     <row r="56" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A56">
-        <v>-0.49019607843137253</v>
+        <v>-25</v>
       </c>
       <c r="B56">
         <v>31.25</v>
@@ -3817,7 +3816,7 @@
     </row>
     <row r="57" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A57">
-        <v>-0.58823529411764708</v>
+        <v>-30</v>
       </c>
       <c r="B57">
         <v>30.33</v>
@@ -3832,7 +3831,7 @@
     </row>
     <row r="58" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A58">
-        <v>-0.68627450980392157</v>
+        <v>-35</v>
       </c>
       <c r="B58">
         <v>29.64</v>
@@ -3847,7 +3846,7 @@
     </row>
     <row r="59" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A59">
-        <v>-0.78431372549019607</v>
+        <v>-40</v>
       </c>
       <c r="B59">
         <v>28.93</v>
@@ -3862,7 +3861,7 @@
     </row>
     <row r="60" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A60">
-        <v>-0.88235294117647056</v>
+        <v>-45</v>
       </c>
       <c r="B60">
         <v>28.16</v>
@@ -3877,7 +3876,7 @@
     </row>
     <row r="61" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A61">
-        <v>-0.98039215686274506</v>
+        <v>-50</v>
       </c>
       <c r="B61">
         <v>27.53</v>
@@ -3892,7 +3891,7 @@
     </row>
     <row r="62" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A62">
-        <v>-1.0784313725490196</v>
+        <v>-55</v>
       </c>
       <c r="B62">
         <v>27.2</v>
@@ -3907,7 +3906,7 @@
     </row>
     <row r="63" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A63">
-        <v>-1.1764705882352942</v>
+        <v>-60</v>
       </c>
       <c r="B63">
         <v>26.22</v>
@@ -3922,7 +3921,7 @@
     </row>
     <row r="64" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A64">
-        <v>-1.2745098039215685</v>
+        <v>-65</v>
       </c>
       <c r="B64">
         <v>26.27</v>
@@ -3937,7 +3936,7 @@
     </row>
     <row r="65" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A65">
-        <v>-1.3725490196078431</v>
+        <v>-70</v>
       </c>
       <c r="B65">
         <v>26.12</v>
@@ -3952,7 +3951,7 @@
     </row>
     <row r="66" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A66">
-        <v>-1.4705882352941175</v>
+        <v>-75</v>
       </c>
       <c r="B66">
         <v>25.5</v>
@@ -3967,7 +3966,7 @@
     </row>
     <row r="67" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A67">
-        <v>-1.5686274509803921</v>
+        <v>-80</v>
       </c>
       <c r="B67">
         <v>25.34</v>
@@ -3982,7 +3981,7 @@
     </row>
     <row r="68" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A68">
-        <v>-1.6666666666666667</v>
+        <v>-85</v>
       </c>
       <c r="B68">
         <v>25.5</v>
@@ -3997,7 +3996,7 @@
     </row>
     <row r="69" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A69">
-        <v>-1.7647058823529411</v>
+        <v>-90</v>
       </c>
       <c r="B69">
         <v>26.07</v>
@@ -4012,7 +4011,7 @@
     </row>
     <row r="70" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A70">
-        <v>-1.8627450980392157</v>
+        <v>-95</v>
       </c>
       <c r="B70">
         <v>26.07</v>
@@ -4027,7 +4026,7 @@
     </row>
     <row r="71" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A71">
-        <v>-1.9607843137254901</v>
+        <v>-100</v>
       </c>
       <c r="B71">
         <v>26.32</v>
@@ -4042,7 +4041,7 @@
     </row>
     <row r="72" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A72">
-        <v>-2.0588235294117645</v>
+        <v>-104.99999999999999</v>
       </c>
       <c r="B72">
         <v>26.58</v>
@@ -4057,7 +4056,7 @@
     </row>
     <row r="73" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A73">
-        <v>-2.1568627450980391</v>
+        <v>-110</v>
       </c>
       <c r="B73">
         <v>26.74</v>
@@ -4072,7 +4071,7 @@
     </row>
     <row r="74" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A74">
-        <v>-2.2549019607843137</v>
+        <v>-115</v>
       </c>
       <c r="B74">
         <v>26.68</v>
@@ -4087,7 +4086,7 @@
     </row>
     <row r="75" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A75">
-        <v>-2.3529411764705883</v>
+        <v>-120</v>
       </c>
       <c r="B75">
         <v>27.37</v>
@@ -4102,7 +4101,7 @@
     </row>
     <row r="76" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A76">
-        <v>-2.4509803921568629</v>
+        <v>-125.00000000000001</v>
       </c>
       <c r="B76">
         <v>27.59</v>
@@ -4117,7 +4116,7 @@
     </row>
     <row r="77" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A77">
-        <v>-2.5490196078431371</v>
+        <v>-130</v>
       </c>
       <c r="B77">
         <v>28.06</v>
@@ -4132,7 +4131,7 @@
     </row>
     <row r="78" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A78">
-        <v>-2.6470588235294117</v>
+        <v>-135</v>
       </c>
       <c r="B78">
         <v>28.42</v>
@@ -4147,7 +4146,7 @@
     </row>
     <row r="79" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A79">
-        <v>-2.7450980392156863</v>
+        <v>-140</v>
       </c>
       <c r="B79">
         <v>28.88</v>
@@ -4162,7 +4161,7 @@
     </row>
     <row r="80" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A80">
-        <v>-2.8431372549019609</v>
+        <v>-145</v>
       </c>
       <c r="B80">
         <v>29.45</v>
@@ -4177,7 +4176,7 @@
     </row>
     <row r="81" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A81">
-        <v>-2.9411764705882351</v>
+        <v>-150</v>
       </c>
       <c r="B81">
         <v>29.91</v>
@@ -4192,7 +4191,7 @@
     </row>
     <row r="82" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A82">
-        <v>-3.0392156862745097</v>
+        <v>-155</v>
       </c>
       <c r="B82">
         <v>30.12</v>
@@ -4207,7 +4206,7 @@
     </row>
     <row r="83" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A83">
-        <v>-3.1372549019607843</v>
+        <v>-160</v>
       </c>
       <c r="B83">
         <v>31.2</v>
@@ -4222,7 +4221,7 @@
     </row>
     <row r="84" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A84">
-        <v>-3.2352941176470589</v>
+        <v>-165</v>
       </c>
       <c r="B84">
         <v>31.46</v>
@@ -4237,7 +4236,7 @@
     </row>
     <row r="85" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A85">
-        <v>-3.3333333333333335</v>
+        <v>-170</v>
       </c>
       <c r="B85">
         <v>32.18</v>
@@ -4252,7 +4251,7 @@
     </row>
     <row r="86" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A86">
-        <v>-3.4313725490196076</v>
+        <v>-175</v>
       </c>
       <c r="B86">
         <v>33.380000000000003</v>
@@ -4267,7 +4266,7 @@
     </row>
     <row r="87" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A87">
-        <v>-3.5294117647058822</v>
+        <v>-180</v>
       </c>
       <c r="B87">
         <v>34.21</v>
@@ -4282,7 +4281,7 @@
     </row>
     <row r="88" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A88">
-        <v>-3.6274509803921569</v>
+        <v>-185</v>
       </c>
       <c r="B88">
         <v>34.619999999999997</v>
@@ -4297,7 +4296,7 @@
     </row>
     <row r="89" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A89">
-        <v>-3.7254901960784315</v>
+        <v>-190</v>
       </c>
       <c r="B89">
         <v>35.450000000000003</v>
@@ -4312,7 +4311,7 @@
     </row>
     <row r="90" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A90">
-        <v>-3.8235294117647056</v>
+        <v>-195</v>
       </c>
       <c r="B90">
         <v>36.89</v>
@@ -4327,7 +4326,7 @@
     </row>
     <row r="91" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A91">
-        <v>-3.9215686274509802</v>
+        <v>-200</v>
       </c>
       <c r="B91">
         <v>37.42</v>
@@ -4342,7 +4341,7 @@
     </row>
     <row r="92" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A92">
-        <v>-4.0196078431372548</v>
+        <v>-205</v>
       </c>
       <c r="B92">
         <v>38.25</v>
@@ -4357,7 +4356,7 @@
     </row>
     <row r="93" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A93">
-        <v>-4.117647058823529</v>
+        <v>-209.99999999999997</v>
       </c>
       <c r="B93">
         <v>39.31</v>
@@ -4372,7 +4371,7 @@
     </row>
     <row r="94" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A94">
-        <v>-4.215686274509804</v>
+        <v>-215</v>
       </c>
       <c r="B94">
         <v>40.31</v>
@@ -4387,7 +4386,7 @@
     </row>
     <row r="95" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A95">
-        <v>-4.3137254901960782</v>
+        <v>-220</v>
       </c>
       <c r="B95">
         <v>41.29</v>
@@ -4402,7 +4401,7 @@
     </row>
     <row r="96" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A96">
-        <v>-4.4117647058823533</v>
+        <v>-225.00000000000003</v>
       </c>
       <c r="B96">
         <v>42.89</v>
@@ -4417,7 +4416,7 @@
     </row>
     <row r="97" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A97">
-        <v>-4.5098039215686274</v>
+        <v>-230</v>
       </c>
       <c r="B97">
         <v>43.57</v>
@@ -4432,7 +4431,7 @@
     </row>
     <row r="98" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A98">
-        <v>-4.6078431372549016</v>
+        <v>-234.99999999999997</v>
       </c>
       <c r="B98">
         <v>45.1</v>
@@ -4447,7 +4446,7 @@
     </row>
     <row r="99" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A99">
-        <v>-4.7058823529411766</v>
+        <v>-240</v>
       </c>
       <c r="B99">
         <v>46</v>
@@ -4462,7 +4461,7 @@
     </row>
     <row r="100" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A100">
-        <v>-4.8039215686274508</v>
+        <v>-245</v>
       </c>
       <c r="B100">
         <v>47.11</v>
@@ -4477,7 +4476,7 @@
     </row>
     <row r="101" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A101">
-        <v>-4.9019607843137258</v>
+        <v>-250.00000000000003</v>
       </c>
       <c r="B101">
         <v>48.69</v>
@@ -4507,7 +4506,7 @@
     </row>
     <row r="103" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A103">
-        <v>9.8039215686274508E-2</v>
+        <v>5</v>
       </c>
       <c r="B103">
         <v>50.77</v>
@@ -4522,7 +4521,7 @@
     </row>
     <row r="104" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A104">
-        <v>0.19607843137254902</v>
+        <v>10</v>
       </c>
       <c r="B104">
         <v>51.7</v>
@@ -4537,7 +4536,7 @@
     </row>
     <row r="105" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A105">
-        <v>0.29411764705882354</v>
+        <v>15</v>
       </c>
       <c r="B105">
         <v>52.29</v>
@@ -4552,7 +4551,7 @@
     </row>
     <row r="106" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A106">
-        <v>0.39215686274509803</v>
+        <v>20</v>
       </c>
       <c r="B106">
         <v>53.14</v>
@@ -4567,7 +4566,7 @@
     </row>
     <row r="107" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A107">
-        <v>0.49019607843137253</v>
+        <v>25</v>
       </c>
       <c r="B107">
         <v>54.35</v>
@@ -4582,7 +4581,7 @@
     </row>
     <row r="108" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A108">
-        <v>0.58823529411764708</v>
+        <v>30</v>
       </c>
       <c r="B108">
         <v>54.5</v>
@@ -4597,7 +4596,7 @@
     </row>
     <row r="109" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A109">
-        <v>0.68627450980392157</v>
+        <v>35</v>
       </c>
       <c r="B109">
         <v>55.22</v>
@@ -4612,7 +4611,7 @@
     </row>
     <row r="110" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A110">
-        <v>0.78431372549019607</v>
+        <v>40</v>
       </c>
       <c r="B110">
         <v>55.76</v>
@@ -4627,7 +4626,7 @@
     </row>
     <row r="111" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A111">
-        <v>0.88235294117647056</v>
+        <v>45</v>
       </c>
       <c r="B111">
         <v>56.07</v>
@@ -4642,7 +4641,7 @@
     </row>
     <row r="112" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A112">
-        <v>0.98039215686274506</v>
+        <v>50</v>
       </c>
       <c r="B112">
         <v>56.94</v>
@@ -4657,7 +4656,7 @@
     </row>
     <row r="113" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A113">
-        <v>1.0784313725490196</v>
+        <v>55</v>
       </c>
       <c r="B113">
         <v>56.84</v>
@@ -4672,7 +4671,7 @@
     </row>
     <row r="114" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A114">
-        <v>1.1764705882352942</v>
+        <v>60</v>
       </c>
       <c r="B114">
         <v>56.99</v>
@@ -4687,7 +4686,7 @@
     </row>
     <row r="115" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A115">
-        <v>1.2745098039215685</v>
+        <v>65</v>
       </c>
       <c r="B115">
         <v>57.32</v>
@@ -4702,7 +4701,7 @@
     </row>
     <row r="116" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A116">
-        <v>1.3725490196078431</v>
+        <v>70</v>
       </c>
       <c r="B116">
         <v>57.46</v>
@@ -4717,7 +4716,7 @@
     </row>
     <row r="117" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A117">
-        <v>1.4705882352941175</v>
+        <v>75</v>
       </c>
       <c r="B117">
         <v>57.99</v>
@@ -4732,7 +4731,7 @@
     </row>
     <row r="118" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A118">
-        <v>1.5686274509803921</v>
+        <v>80</v>
       </c>
       <c r="B118">
         <v>57.47</v>
@@ -4747,7 +4746,7 @@
     </row>
     <row r="119" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A119">
-        <v>1.6666666666666667</v>
+        <v>85</v>
       </c>
       <c r="B119">
         <v>57.53</v>
@@ -4762,7 +4761,7 @@
     </row>
     <row r="120" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A120">
-        <v>1.7647058823529411</v>
+        <v>90</v>
       </c>
       <c r="B120">
         <v>57.89</v>
@@ -4777,7 +4776,7 @@
     </row>
     <row r="121" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A121">
-        <v>1.8627450980392157</v>
+        <v>95</v>
       </c>
       <c r="B121">
         <v>57.27</v>
@@ -4792,7 +4791,7 @@
     </row>
     <row r="122" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A122">
-        <v>1.9607843137254901</v>
+        <v>100</v>
       </c>
       <c r="B122">
         <v>57.27</v>
@@ -4807,7 +4806,7 @@
     </row>
     <row r="123" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A123">
-        <v>2.0588235294117645</v>
+        <v>104.99999999999999</v>
       </c>
       <c r="B123">
         <v>57.59</v>
@@ -4822,7 +4821,7 @@
     </row>
     <row r="124" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A124">
-        <v>2.1568627450980391</v>
+        <v>110</v>
       </c>
       <c r="B124">
         <v>56.96</v>
@@ -4837,7 +4836,7 @@
     </row>
     <row r="125" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A125">
-        <v>2.2549019607843137</v>
+        <v>115</v>
       </c>
       <c r="B125">
         <v>56.89</v>
@@ -4852,7 +4851,7 @@
     </row>
     <row r="126" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A126">
-        <v>2.3529411764705883</v>
+        <v>120</v>
       </c>
       <c r="B126">
         <v>57.2</v>
@@ -4867,7 +4866,7 @@
     </row>
     <row r="127" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A127">
-        <v>2.4509803921568629</v>
+        <v>125.00000000000001</v>
       </c>
       <c r="B127">
         <v>57.01</v>
@@ -4882,7 +4881,7 @@
     </row>
     <row r="128" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A128">
-        <v>2.5490196078431371</v>
+        <v>130</v>
       </c>
       <c r="B128">
         <v>56.34</v>
@@ -4897,7 +4896,7 @@
     </row>
     <row r="129" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A129">
-        <v>2.6470588235294117</v>
+        <v>135</v>
       </c>
       <c r="B129">
         <v>56.01</v>
@@ -4912,7 +4911,7 @@
     </row>
     <row r="130" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A130">
-        <v>2.7450980392156863</v>
+        <v>140</v>
       </c>
       <c r="B130">
         <v>56.01</v>
@@ -4927,7 +4926,7 @@
     </row>
     <row r="131" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A131">
-        <v>2.8431372549019609</v>
+        <v>145</v>
       </c>
       <c r="B131">
         <v>55.07</v>
@@ -4942,7 +4941,7 @@
     </row>
     <row r="132" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A132">
-        <v>2.9411764705882351</v>
+        <v>150</v>
       </c>
       <c r="B132">
         <v>54.67</v>
@@ -4957,7 +4956,7 @@
     </row>
     <row r="133" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A133">
-        <v>3.0392156862745097</v>
+        <v>155</v>
       </c>
       <c r="B133">
         <v>54.57</v>
@@ -4972,7 +4971,7 @@
     </row>
     <row r="134" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A134">
-        <v>3.1372549019607843</v>
+        <v>160</v>
       </c>
       <c r="B134">
         <v>53.54</v>
@@ -4987,7 +4986,7 @@
     </row>
     <row r="135" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A135">
-        <v>3.2352941176470589</v>
+        <v>165</v>
       </c>
       <c r="B135">
         <v>52.92</v>
@@ -5002,7 +5001,7 @@
     </row>
     <row r="136" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A136">
-        <v>3.3333333333333335</v>
+        <v>170</v>
       </c>
       <c r="B136">
         <v>52.25</v>
@@ -5017,7 +5016,7 @@
     </row>
     <row r="137" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A137">
-        <v>3.4313725490196076</v>
+        <v>175</v>
       </c>
       <c r="B137">
         <v>51.53</v>
@@ -5032,7 +5031,7 @@
     </row>
     <row r="138" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A138">
-        <v>3.5294117647058822</v>
+        <v>180</v>
       </c>
       <c r="B138">
         <v>50.76</v>
@@ -5047,7 +5046,7 @@
     </row>
     <row r="139" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A139">
-        <v>3.6274509803921569</v>
+        <v>185</v>
       </c>
       <c r="B139">
         <v>49.97</v>
@@ -5062,7 +5061,7 @@
     </row>
     <row r="140" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A140">
-        <v>3.7254901960784315</v>
+        <v>190</v>
       </c>
       <c r="B140">
         <v>49.14</v>
@@ -5077,7 +5076,7 @@
     </row>
     <row r="141" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A141">
-        <v>3.8235294117647056</v>
+        <v>195</v>
       </c>
       <c r="B141">
         <v>48.4</v>
@@ -5092,7 +5091,7 @@
     </row>
     <row r="142" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A142">
-        <v>3.9215686274509802</v>
+        <v>200</v>
       </c>
       <c r="B142">
         <v>47.42</v>
@@ -5107,7 +5106,7 @@
     </row>
     <row r="143" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A143">
-        <v>4.0196078431372548</v>
+        <v>205</v>
       </c>
       <c r="B143">
         <v>46.48</v>
@@ -5122,7 +5121,7 @@
     </row>
     <row r="144" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A144">
-        <v>4.117647058823529</v>
+        <v>209.99999999999997</v>
       </c>
       <c r="B144">
         <v>45.67</v>
@@ -5137,7 +5136,7 @@
     </row>
     <row r="145" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A145">
-        <v>4.215686274509804</v>
+        <v>215</v>
       </c>
       <c r="B145">
         <v>44.81</v>
@@ -5152,7 +5151,7 @@
     </row>
     <row r="146" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A146">
-        <v>4.3137254901960782</v>
+        <v>220</v>
       </c>
       <c r="B146">
         <v>43.75</v>
@@ -5167,7 +5166,7 @@
     </row>
     <row r="147" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A147">
-        <v>4.4117647058823533</v>
+        <v>225.00000000000003</v>
       </c>
       <c r="B147">
         <v>42.73</v>
@@ -5182,7 +5181,7 @@
     </row>
     <row r="148" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A148">
-        <v>4.5098039215686274</v>
+        <v>230</v>
       </c>
       <c r="B148">
         <v>41.8</v>
@@ -5197,7 +5196,7 @@
     </row>
     <row r="149" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A149">
-        <v>4.6078431372549016</v>
+        <v>234.99999999999997</v>
       </c>
       <c r="B149">
         <v>41.19</v>
@@ -5212,7 +5211,7 @@
     </row>
     <row r="150" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A150">
-        <v>4.7058823529411766</v>
+        <v>240</v>
       </c>
       <c r="B150">
         <v>39.909999999999997</v>
@@ -5227,7 +5226,7 @@
     </row>
     <row r="151" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A151">
-        <v>4.8039215686274508</v>
+        <v>245</v>
       </c>
       <c r="B151">
         <v>38.869999999999997</v>
@@ -5242,7 +5241,7 @@
     </row>
     <row r="152" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A152">
-        <v>4.9019607843137258</v>
+        <v>250.00000000000003</v>
       </c>
       <c r="B152">
         <v>37.729999999999997</v>
@@ -5257,7 +5256,7 @@
     </row>
     <row r="153" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A153">
-        <v>-9.8039215686274508E-2</v>
+        <v>-5</v>
       </c>
       <c r="B153">
         <v>36.49</v>
@@ -5272,7 +5271,7 @@
     </row>
     <row r="154" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A154">
-        <v>-0.19607843137254902</v>
+        <v>-10</v>
       </c>
       <c r="B154">
         <v>35.340000000000003</v>
@@ -5287,7 +5286,7 @@
     </row>
     <row r="155" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A155">
-        <v>-0.29411764705882354</v>
+        <v>-15</v>
       </c>
       <c r="B155">
         <v>34.11</v>
@@ -5302,7 +5301,7 @@
     </row>
     <row r="156" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A156">
-        <v>-0.39215686274509803</v>
+        <v>-20</v>
       </c>
       <c r="B156">
         <v>32.96</v>
@@ -5317,7 +5316,7 @@
     </row>
     <row r="157" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A157">
-        <v>-0.49019607843137253</v>
+        <v>-25</v>
       </c>
       <c r="B157">
         <v>31.56</v>
@@ -5332,7 +5331,7 @@
     </row>
     <row r="158" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A158">
-        <v>-0.58823529411764708</v>
+        <v>-30</v>
       </c>
       <c r="B158">
         <v>30.46</v>
@@ -5347,7 +5346,7 @@
     </row>
     <row r="159" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A159">
-        <v>-0.68627450980392157</v>
+        <v>-35</v>
       </c>
       <c r="B159">
         <v>30</v>
@@ -5362,7 +5361,7 @@
     </row>
     <row r="160" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A160">
-        <v>-0.78431372549019607</v>
+        <v>-40</v>
       </c>
       <c r="B160">
         <v>29.33</v>
@@ -5377,7 +5376,7 @@
     </row>
     <row r="161" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A161">
-        <v>-0.88235294117647056</v>
+        <v>-45</v>
       </c>
       <c r="B161">
         <v>28.66</v>
@@ -5392,7 +5391,7 @@
     </row>
     <row r="162" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A162">
-        <v>-0.98039215686274506</v>
+        <v>-50</v>
       </c>
       <c r="B162">
         <v>27.94</v>
@@ -5407,7 +5406,7 @@
     </row>
     <row r="163" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A163">
-        <v>-1.0784313725490196</v>
+        <v>-55</v>
       </c>
       <c r="B163">
         <v>27.47</v>
@@ -5422,7 +5421,7 @@
     </row>
     <row r="164" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A164">
-        <v>-1.1764705882352942</v>
+        <v>-60</v>
       </c>
       <c r="B164">
         <v>27.58</v>
@@ -5437,7 +5436,7 @@
     </row>
     <row r="165" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A165">
-        <v>-1.2745098039215685</v>
+        <v>-65</v>
       </c>
       <c r="B165">
         <v>26.94</v>
@@ -5452,7 +5451,7 @@
     </row>
     <row r="166" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A166">
-        <v>-1.3725490196078431</v>
+        <v>-70</v>
       </c>
       <c r="B166">
         <v>26.74</v>
@@ -5467,7 +5466,7 @@
     </row>
     <row r="167" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A167">
-        <v>-1.4705882352941175</v>
+        <v>-75</v>
       </c>
       <c r="B167">
         <v>26.74</v>
@@ -5482,7 +5481,7 @@
     </row>
     <row r="168" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A168">
-        <v>-1.5686274509803921</v>
+        <v>-80</v>
       </c>
       <c r="B168">
         <v>27.1</v>
@@ -5497,7 +5496,7 @@
     </row>
     <row r="169" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A169">
-        <v>-1.6666666666666667</v>
+        <v>-85</v>
       </c>
       <c r="B169">
         <v>26.74</v>
@@ -5512,7 +5511,7 @@
     </row>
     <row r="170" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A170">
-        <v>-1.7647058823529411</v>
+        <v>-90</v>
       </c>
       <c r="B170">
         <v>26.94</v>
@@ -5527,7 +5526,7 @@
     </row>
     <row r="171" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A171">
-        <v>-1.8627450980392157</v>
+        <v>-95</v>
       </c>
       <c r="B171">
         <v>27.04</v>
@@ -5542,7 +5541,7 @@
     </row>
     <row r="172" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A172">
-        <v>-1.9607843137254901</v>
+        <v>-100</v>
       </c>
       <c r="B172">
         <v>27.04</v>
@@ -5557,7 +5556,7 @@
     </row>
     <row r="173" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A173">
-        <v>-2.0588235294117645</v>
+        <v>-104.99999999999999</v>
       </c>
       <c r="B173">
         <v>27.32</v>
@@ -5572,7 +5571,7 @@
     </row>
     <row r="174" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A174">
-        <v>-2.1568627450980391</v>
+        <v>-110</v>
       </c>
       <c r="B174">
         <v>27.37</v>
@@ -5587,7 +5586,7 @@
     </row>
     <row r="175" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A175">
-        <v>-2.2549019607843137</v>
+        <v>-115</v>
       </c>
       <c r="B175">
         <v>27.34</v>
@@ -5602,7 +5601,7 @@
     </row>
     <row r="176" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A176">
-        <v>-2.3529411764705883</v>
+        <v>-120</v>
       </c>
       <c r="B176">
         <v>27.7</v>
@@ -5617,7 +5616,7 @@
     </row>
     <row r="177" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A177">
-        <v>-2.4509803921568629</v>
+        <v>-125.00000000000001</v>
       </c>
       <c r="B177">
         <v>28.26</v>
@@ -5632,7 +5631,7 @@
     </row>
     <row r="178" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A178">
-        <v>-2.5490196078431371</v>
+        <v>-130</v>
       </c>
       <c r="B178">
         <v>28.11</v>
@@ -5647,7 +5646,7 @@
     </row>
     <row r="179" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A179">
-        <v>-2.6470588235294117</v>
+        <v>-135</v>
       </c>
       <c r="B179">
         <v>28.57</v>
@@ -5662,7 +5661,7 @@
     </row>
     <row r="180" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A180">
-        <v>-2.7450980392156863</v>
+        <v>-140</v>
       </c>
       <c r="B180">
         <v>28.88</v>
@@ -5677,7 +5676,7 @@
     </row>
     <row r="181" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A181">
-        <v>-2.8431372549019609</v>
+        <v>-145</v>
       </c>
       <c r="B181">
         <v>28.88</v>
@@ -5692,7 +5691,7 @@
     </row>
     <row r="182" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A182">
-        <v>-2.9411764705882351</v>
+        <v>-150</v>
       </c>
       <c r="B182">
         <v>29.91</v>
@@ -5707,7 +5706,7 @@
     </row>
     <row r="183" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A183">
-        <v>-3.0392156862745097</v>
+        <v>-155</v>
       </c>
       <c r="B183">
         <v>29.91</v>
@@ -5722,7 +5721,7 @@
     </row>
     <row r="184" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A184">
-        <v>-3.1372549019607843</v>
+        <v>-160</v>
       </c>
       <c r="B184">
         <v>30.91</v>
@@ -5737,7 +5736,7 @@
     </row>
     <row r="185" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A185">
-        <v>-3.2352941176470589</v>
+        <v>-165</v>
       </c>
       <c r="B185">
         <v>31.2</v>
@@ -5752,7 +5751,7 @@
     </row>
     <row r="186" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A186">
-        <v>-3.3333333333333335</v>
+        <v>-170</v>
       </c>
       <c r="B186">
         <v>32.130000000000003</v>
@@ -5767,7 +5766,7 @@
     </row>
     <row r="187" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A187">
-        <v>-3.4313725490196076</v>
+        <v>-175</v>
       </c>
       <c r="B187">
         <v>32.85</v>
@@ -5782,7 +5781,7 @@
     </row>
     <row r="188" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A188">
-        <v>-3.5294117647058822</v>
+        <v>-180</v>
       </c>
       <c r="B188">
         <v>33.21</v>
@@ -5797,7 +5796,7 @@
     </row>
     <row r="189" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A189">
-        <v>-3.6274509803921569</v>
+        <v>-185</v>
       </c>
       <c r="B189">
         <v>34.31</v>
@@ -5812,7 +5811,7 @@
     </row>
     <row r="190" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A190">
-        <v>-3.7254901960784315</v>
+        <v>-190</v>
       </c>
       <c r="B190">
         <v>34.78</v>
@@ -5827,7 +5826,7 @@
     </row>
     <row r="191" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A191">
-        <v>-3.8235294117647056</v>
+        <v>-195</v>
       </c>
       <c r="B191">
         <v>35.549999999999997</v>
@@ -5842,7 +5841,7 @@
     </row>
     <row r="192" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A192">
-        <v>-3.9215686274509802</v>
+        <v>-200</v>
       </c>
       <c r="B192">
         <v>37.06</v>
@@ -5857,7 +5856,7 @@
     </row>
     <row r="193" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A193">
-        <v>-4.0196078431372548</v>
+        <v>-205</v>
       </c>
       <c r="B193">
         <v>37.630000000000003</v>
@@ -5872,7 +5871,7 @@
     </row>
     <row r="194" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A194">
-        <v>-4.117647058823529</v>
+        <v>-209.99999999999997</v>
       </c>
       <c r="B194">
         <v>38.54</v>
@@ -5887,7 +5886,7 @@
     </row>
     <row r="195" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A195">
-        <v>-4.215686274509804</v>
+        <v>-215</v>
       </c>
       <c r="B195">
         <v>40.03</v>
@@ -5902,7 +5901,7 @@
     </row>
     <row r="196" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A196">
-        <v>-4.3137254901960782</v>
+        <v>-220</v>
       </c>
       <c r="B196">
         <v>40.6</v>
@@ -5917,7 +5916,7 @@
     </row>
     <row r="197" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A197">
-        <v>-4.4117647058823533</v>
+        <v>-225.00000000000003</v>
       </c>
       <c r="B197">
         <v>41.39</v>
@@ -5932,7 +5931,7 @@
     </row>
     <row r="198" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A198">
-        <v>-4.5098039215686274</v>
+        <v>-230</v>
       </c>
       <c r="B198">
         <v>42.89</v>
@@ -5947,7 +5946,7 @@
     </row>
     <row r="199" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A199">
-        <v>-4.6078431372549016</v>
+        <v>-234.99999999999997</v>
       </c>
       <c r="B199">
         <v>43.3</v>
@@ -5962,7 +5961,7 @@
     </row>
     <row r="200" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A200">
-        <v>-4.7058823529411766</v>
+        <v>-240</v>
       </c>
       <c r="B200">
         <v>44.66</v>
@@ -5977,7 +5976,7 @@
     </row>
     <row r="201" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A201">
-        <v>-4.8039215686274508</v>
+        <v>-245</v>
       </c>
       <c r="B201">
         <v>45.5</v>
@@ -5992,7 +5991,7 @@
     </row>
     <row r="202" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A202">
-        <v>-4.9019607843137258</v>
+        <v>-250.00000000000003</v>
       </c>
       <c r="B202">
         <v>45.81</v>
